--- a/data/escapement/prelim-inseason/2025/EscEstAUCSource.xlsx
+++ b/data/escapement/prelim-inseason/2025/EscEstAUCSource.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="EscEstAUCSource"/>
   </sheets>
   <definedNames>
-    <definedName name="EscEstAUCSource">'EscEstAUCSource'!$A$1:$S$60</definedName>
+    <definedName name="EscEstAUCSource">'EscEstAUCSource'!$A$1:$S$120</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -455,7 +455,7 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-037300-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B2" s="0">
@@ -467,19 +467,13 @@
         </is>
       </c>
       <c r="D2" s="1">
-        <v>45936</v>
+        <v>45974</v>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F2" s="0">
-        <v>46</v>
-      </c>
-      <c r="G2" s="0">
-        <v>2</v>
-      </c>
       <c r="H2" s="0">
         <v>0</v>
       </c>
@@ -488,23 +482,14 @@
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L2" s="0">
         <v>1</v>
       </c>
       <c r="M2" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="N2" s="0">
-        <v>51.1111111111111</v>
-      </c>
-      <c r="O2" s="0">
-        <v>2</v>
-      </c>
-      <c r="P2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="0" t="b">
         <v>0</v>
@@ -513,7 +498,7 @@
     <row outlineLevel="0" r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-037300-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B3" s="0">
@@ -525,19 +510,13 @@
         </is>
       </c>
       <c r="D3" s="1">
-        <v>45936</v>
+        <v>45974</v>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F3" s="0">
-        <v>188</v>
-      </c>
-      <c r="G3" s="0">
-        <v>62</v>
-      </c>
       <c r="H3" s="0">
         <v>0</v>
       </c>
@@ -546,23 +525,14 @@
       </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L3" s="0">
         <v>1</v>
       </c>
       <c r="M3" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="N3" s="0">
-        <v>208.888888888889</v>
-      </c>
-      <c r="O3" s="0">
-        <v>6</v>
-      </c>
-      <c r="P3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="0" t="b">
         <v>0</v>
@@ -571,7 +541,7 @@
     <row outlineLevel="0" r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-037300-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B4" s="0">
@@ -579,11 +549,11 @@
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D4" s="1">
-        <v>45946</v>
+        <v>45974</v>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
@@ -591,10 +561,10 @@
         </is>
       </c>
       <c r="F4" s="0">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G4" s="0">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0">
         <v>0</v>
@@ -604,20 +574,20 @@
       </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L4" s="0">
         <v>1</v>
       </c>
       <c r="M4" s="0">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="N4" s="0">
-        <v>30</v>
+        <v>32.6315789473684</v>
       </c>
       <c r="O4" s="0">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
@@ -629,7 +599,7 @@
     <row outlineLevel="0" r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-037300-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B5" s="0">
@@ -637,48 +607,33 @@
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D5" s="1">
-        <v>45936</v>
+        <v>45974</v>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F5" s="0">
-        <v>3795</v>
-      </c>
-      <c r="G5" s="0">
-        <v>0</v>
-      </c>
       <c r="H5" s="0">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L5" s="0">
         <v>1</v>
       </c>
       <c r="M5" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="N5" s="0">
-        <v>4216.66666666667</v>
-      </c>
-      <c r="O5" s="0">
-        <v>0</v>
-      </c>
-      <c r="P5" s="0">
-        <v>118.888888888889</v>
+        <v>1</v>
       </c>
       <c r="S5" s="0" t="b">
         <v>0</v>
@@ -687,7 +642,7 @@
     <row outlineLevel="0" r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-037300-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B6" s="0">
@@ -695,48 +650,33 @@
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D6" s="1">
-        <v>45946</v>
+        <v>45974</v>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F6" s="0">
-        <v>3922</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1</v>
-      </c>
       <c r="H6" s="0">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L6" s="0">
         <v>1</v>
       </c>
       <c r="M6" s="0">
-        <v>0.85</v>
-      </c>
-      <c r="N6" s="0">
-        <v>4614.11764705882</v>
-      </c>
-      <c r="O6" s="0">
-        <v>1</v>
-      </c>
-      <c r="P6" s="0">
-        <v>57.6470588235294</v>
+        <v>1</v>
       </c>
       <c r="S6" s="0" t="b">
         <v>0</v>
@@ -753,7 +693,7 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D7" s="1">
@@ -765,7 +705,10 @@
         </is>
       </c>
       <c r="F7" s="0">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
@@ -785,7 +728,10 @@
         <v>0.9</v>
       </c>
       <c r="N7" s="0">
-        <v>2.22222222222222</v>
+        <v>10</v>
+      </c>
+      <c r="O7" s="0">
+        <v>0</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
@@ -805,7 +751,7 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D8" s="1">
@@ -816,6 +762,12 @@
           <t>snrkl</t>
         </is>
       </c>
+      <c r="F8" s="0">
+        <v>37</v>
+      </c>
+      <c r="G8" s="0">
+        <v>2</v>
+      </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
@@ -824,14 +776,20 @@
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L8" s="0">
         <v>1</v>
       </c>
       <c r="M8" s="0">
-        <v>1</v>
+        <v>0.9</v>
+      </c>
+      <c r="N8" s="0">
+        <v>41.1111111111111</v>
+      </c>
+      <c r="P8" s="0">
+        <v>0</v>
       </c>
       <c r="S8" s="0" t="b">
         <v>0</v>
@@ -848,11 +806,11 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D9" s="1">
-        <v>45936</v>
+        <v>45992</v>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
@@ -860,10 +818,10 @@
         </is>
       </c>
       <c r="F9" s="0">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -880,12 +838,15 @@
         <v>1</v>
       </c>
       <c r="M9" s="0">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N9" s="0">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="O9" s="0">
+        <v>1</v>
+      </c>
+      <c r="P9" s="0">
         <v>0</v>
       </c>
       <c r="S9" s="0" t="b">
@@ -903,11 +864,11 @@
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D10" s="1">
-        <v>45946</v>
+        <v>45936</v>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
@@ -915,7 +876,10 @@
         </is>
       </c>
       <c r="F10" s="0">
-        <v>47</v>
+        <v>188</v>
+      </c>
+      <c r="G10" s="0">
+        <v>62</v>
       </c>
       <c r="H10" s="0">
         <v>0</v>
@@ -932,10 +896,16 @@
         <v>1</v>
       </c>
       <c r="M10" s="0">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N10" s="0">
-        <v>47</v>
+        <v>208.888888888889</v>
+      </c>
+      <c r="O10" s="0">
+        <v>6</v>
+      </c>
+      <c r="P10" s="0">
+        <v>0</v>
       </c>
       <c r="S10" s="0" t="b">
         <v>0</v>
@@ -944,7 +914,7 @@
     <row outlineLevel="0" r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>930-053800-12100-05400-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B11" s="0">
@@ -952,11 +922,11 @@
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D11" s="1">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
@@ -964,7 +934,10 @@
         </is>
       </c>
       <c r="F11" s="0">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="G11" s="0">
+        <v>57</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
@@ -981,10 +954,13 @@
         <v>1</v>
       </c>
       <c r="M11" s="0">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="N11" s="0">
-        <v>5.55555555555556</v>
+        <v>28.2352941176471</v>
+      </c>
+      <c r="O11" s="0">
+        <v>23</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
@@ -996,7 +972,7 @@
     <row outlineLevel="0" r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>930-053800-12100-05400-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B12" s="0">
@@ -1008,19 +984,13 @@
         </is>
       </c>
       <c r="D12" s="1">
-        <v>45944</v>
+        <v>45992</v>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F12" s="0">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0">
-        <v>20</v>
-      </c>
       <c r="H12" s="0">
         <v>0</v>
       </c>
@@ -1029,7 +999,7 @@
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L12" s="0">
@@ -1038,12 +1008,6 @@
       <c r="M12" s="0">
         <v>0.9</v>
       </c>
-      <c r="N12" s="0">
-        <v>1.11111111111111</v>
-      </c>
-      <c r="O12" s="0">
-        <v>20</v>
-      </c>
       <c r="P12" s="0">
         <v>0</v>
       </c>
@@ -1054,7 +1018,7 @@
     <row outlineLevel="0" r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>930-053800-22100-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B13" s="0">
@@ -1062,33 +1026,48 @@
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D13" s="1">
-        <v>45939</v>
+        <v>45936</v>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
+      <c r="F13" s="0">
+        <v>3795</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0</v>
+      </c>
       <c r="H13" s="0">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
       </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L13" s="0">
         <v>1</v>
       </c>
       <c r="M13" s="0">
-        <v>1</v>
+        <v>0.9</v>
+      </c>
+      <c r="N13" s="0">
+        <v>4216.66666666667</v>
+      </c>
+      <c r="O13" s="0">
+        <v>0</v>
+      </c>
+      <c r="P13" s="0">
+        <v>118.888888888889</v>
       </c>
       <c r="S13" s="0" t="b">
         <v>0</v>
@@ -1097,7 +1076,7 @@
     <row outlineLevel="0" r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>930-053800-22100-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B14" s="0">
@@ -1105,11 +1084,11 @@
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D14" s="1">
-        <v>45939</v>
+        <v>45946</v>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
@@ -1117,13 +1096,13 @@
         </is>
       </c>
       <c r="F14" s="0">
-        <v>66</v>
+        <v>3922</v>
       </c>
       <c r="G14" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H14" s="0">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -1137,16 +1116,13 @@
         <v>1</v>
       </c>
       <c r="M14" s="0">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="N14" s="0">
-        <v>73.3333333333333</v>
-      </c>
-      <c r="O14" s="0">
-        <v>6</v>
+        <v>4614.11764705882</v>
       </c>
       <c r="P14" s="0">
-        <v>0</v>
+        <v>57.6470588235294</v>
       </c>
       <c r="S14" s="0" t="b">
         <v>0</v>
@@ -1155,7 +1131,7 @@
     <row outlineLevel="0" r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>930-053800-22100-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B15" s="0">
@@ -1167,7 +1143,7 @@
         </is>
       </c>
       <c r="D15" s="1">
-        <v>45939</v>
+        <v>45992</v>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
@@ -1175,13 +1151,13 @@
         </is>
       </c>
       <c r="F15" s="0">
-        <v>1160</v>
+        <v>48</v>
       </c>
       <c r="G15" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H15" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -1198,13 +1174,10 @@
         <v>0.9</v>
       </c>
       <c r="N15" s="0">
-        <v>1288.88888888889</v>
-      </c>
-      <c r="O15" s="0">
-        <v>1</v>
+        <v>53.3333333333333</v>
       </c>
       <c r="P15" s="0">
-        <v>0</v>
+        <v>4.44444444444444</v>
       </c>
       <c r="S15" s="0" t="b">
         <v>0</v>
@@ -1213,7 +1186,7 @@
     <row outlineLevel="0" r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>930-053800-25200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B16" s="0">
@@ -1221,17 +1194,20 @@
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D16" s="1">
-        <v>45982</v>
+        <v>45936</v>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
+      <c r="F16" s="0">
+        <v>2</v>
+      </c>
       <c r="H16" s="0">
         <v>0</v>
       </c>
@@ -1240,14 +1216,20 @@
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L16" s="0">
         <v>1</v>
       </c>
       <c r="M16" s="0">
-        <v>1</v>
+        <v>0.9</v>
+      </c>
+      <c r="N16" s="0">
+        <v>2.22222222222222</v>
+      </c>
+      <c r="P16" s="0">
+        <v>0</v>
       </c>
       <c r="S16" s="0" t="b">
         <v>0</v>
@@ -1256,7 +1238,7 @@
     <row outlineLevel="0" r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>930-053800-25200-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B17" s="0">
@@ -1264,11 +1246,11 @@
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D17" s="1">
-        <v>45982</v>
+        <v>45946</v>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
@@ -1299,7 +1281,7 @@
     <row outlineLevel="0" r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>930-054700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B18" s="0">
@@ -1307,23 +1289,17 @@
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D18" s="1">
-        <v>45938</v>
+        <v>45992</v>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F18" s="0">
-        <v>90</v>
-      </c>
-      <c r="G18" s="0">
-        <v>6</v>
-      </c>
       <c r="H18" s="0">
         <v>0</v>
       </c>
@@ -1332,23 +1308,14 @@
       </c>
       <c r="K18" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L18" s="0">
         <v>1</v>
       </c>
       <c r="M18" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="N18" s="0">
-        <v>100</v>
-      </c>
-      <c r="O18" s="0">
-        <v>6</v>
-      </c>
-      <c r="P18" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="0" t="b">
         <v>0</v>
@@ -1357,7 +1324,7 @@
     <row outlineLevel="0" r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>930-054700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B19" s="0">
@@ -1365,11 +1332,11 @@
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D19" s="1">
-        <v>45938</v>
+        <v>45936</v>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
@@ -1377,10 +1344,10 @@
         </is>
       </c>
       <c r="F19" s="0">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="G19" s="0">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
@@ -1400,10 +1367,10 @@
         <v>0.9</v>
       </c>
       <c r="N19" s="0">
-        <v>97.7777777777778</v>
+        <v>51.1111111111111</v>
       </c>
       <c r="O19" s="0">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
@@ -1415,7 +1382,7 @@
     <row outlineLevel="0" r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>930-054700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B20" s="0">
@@ -1423,11 +1390,11 @@
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D20" s="1">
-        <v>45938</v>
+        <v>45946</v>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
@@ -1435,7 +1402,7 @@
         </is>
       </c>
       <c r="F20" s="0">
-        <v>1019</v>
+        <v>46</v>
       </c>
       <c r="H20" s="0">
         <v>0</v>
@@ -1455,7 +1422,7 @@
         <v>0.9</v>
       </c>
       <c r="N20" s="0">
-        <v>1132.22222222222</v>
+        <v>51.1111111111111</v>
       </c>
       <c r="P20" s="0">
         <v>0</v>
@@ -1467,7 +1434,7 @@
     <row outlineLevel="0" r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>930-054700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-00000-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B21" s="0">
@@ -1475,17 +1442,20 @@
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D21" s="1">
-        <v>45938</v>
+        <v>45992</v>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
+      <c r="F21" s="0">
+        <v>0</v>
+      </c>
       <c r="H21" s="0">
         <v>0</v>
       </c>
@@ -1501,7 +1471,13 @@
         <v>1</v>
       </c>
       <c r="M21" s="0">
-        <v>1</v>
+        <v>0.9</v>
+      </c>
+      <c r="N21" s="0">
+        <v>0</v>
+      </c>
+      <c r="P21" s="0">
+        <v>0</v>
       </c>
       <c r="S21" s="0" t="b">
         <v>0</v>
@@ -1510,7 +1486,7 @@
     <row outlineLevel="0" r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>930-054700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-07600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B22" s="0">
@@ -1518,20 +1494,17 @@
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D22" s="1">
-        <v>45938</v>
+        <v>45987</v>
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F22" s="0">
-        <v>105</v>
-      </c>
       <c r="H22" s="0">
         <v>0</v>
       </c>
@@ -1540,20 +1513,14 @@
       </c>
       <c r="K22" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L22" s="0">
         <v>1</v>
       </c>
       <c r="M22" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="N22" s="0">
-        <v>116.666666666667</v>
-      </c>
-      <c r="P22" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="0" t="b">
         <v>0</v>
@@ -1562,7 +1529,7 @@
     <row outlineLevel="0" r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-07600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B23" s="0">
@@ -1570,11 +1537,11 @@
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D23" s="1">
-        <v>45895</v>
+        <v>45987</v>
       </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
@@ -1605,7 +1572,7 @@
     <row outlineLevel="0" r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-07600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B24" s="0">
@@ -1613,11 +1580,11 @@
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D24" s="1">
-        <v>45912</v>
+        <v>45987</v>
       </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
@@ -1625,10 +1592,7 @@
         </is>
       </c>
       <c r="F24" s="0">
-        <v>79</v>
-      </c>
-      <c r="G24" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H24" s="0">
         <v>0</v>
@@ -1638,23 +1602,17 @@
       </c>
       <c r="K24" s="0" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L24" s="0">
         <v>1</v>
       </c>
       <c r="M24" s="0">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N24" s="0">
-        <v>98.75</v>
-      </c>
-      <c r="O24" s="0">
-        <v>0</v>
-      </c>
-      <c r="P24" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S24" s="0" t="b">
         <v>0</v>
@@ -1663,7 +1621,7 @@
     <row outlineLevel="0" r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-07600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B25" s="0">
@@ -1671,23 +1629,17 @@
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D25" s="1">
-        <v>45925</v>
+        <v>45987</v>
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F25" s="0">
-        <v>391</v>
-      </c>
-      <c r="G25" s="0">
-        <v>1</v>
-      </c>
       <c r="H25" s="0">
         <v>0</v>
       </c>
@@ -1696,23 +1648,14 @@
       </c>
       <c r="K25" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L25" s="0">
         <v>1</v>
       </c>
       <c r="M25" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="N25" s="0">
-        <v>488.75</v>
-      </c>
-      <c r="O25" s="0">
-        <v>1</v>
-      </c>
-      <c r="P25" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="0" t="b">
         <v>0</v>
@@ -1721,7 +1664,7 @@
     <row outlineLevel="0" r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-07600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B26" s="0">
@@ -1729,23 +1672,17 @@
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D26" s="1">
-        <v>45938</v>
+        <v>45987</v>
       </c>
       <c r="E26" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F26" s="0">
-        <v>5462</v>
-      </c>
-      <c r="G26" s="0">
-        <v>142</v>
-      </c>
       <c r="H26" s="0">
         <v>0</v>
       </c>
@@ -1754,23 +1691,14 @@
       </c>
       <c r="K26" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L26" s="0">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
       <c r="M26" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="N26" s="0">
-        <v>6388.3041737299</v>
-      </c>
-      <c r="O26" s="0">
-        <v>157.777781957462</v>
-      </c>
-      <c r="P26" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="0" t="b">
         <v>0</v>
@@ -1779,7 +1707,7 @@
     <row outlineLevel="0" r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-09200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B27" s="0">
@@ -1791,19 +1719,13 @@
         </is>
       </c>
       <c r="D27" s="1">
-        <v>45946</v>
+        <v>45987</v>
       </c>
       <c r="E27" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F27" s="0">
-        <v>5334</v>
-      </c>
-      <c r="G27" s="0">
-        <v>814</v>
-      </c>
       <c r="H27" s="0">
         <v>0</v>
       </c>
@@ -1812,23 +1734,14 @@
       </c>
       <c r="K27" s="0" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L27" s="0">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
       <c r="M27" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="N27" s="0">
-        <v>6238.59656951214</v>
-      </c>
-      <c r="O27" s="0">
-        <v>904.444468404041</v>
-      </c>
-      <c r="P27" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="0" t="b">
         <v>0</v>
@@ -1837,7 +1750,7 @@
     <row outlineLevel="0" r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-09200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B28" s="0">
@@ -1845,19 +1758,16 @@
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D28" s="1">
-        <v>45951</v>
+        <v>45987</v>
       </c>
       <c r="E28" s="0" t="inlineStr">
         <is>
-          <t>heli</t>
-        </is>
-      </c>
-      <c r="F28" s="0">
-        <v>24370</v>
+          <t>snrkl</t>
+        </is>
       </c>
       <c r="H28" s="0">
         <v>0</v>
@@ -1867,20 +1777,14 @@
       </c>
       <c r="K28" s="0" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L28" s="0">
         <v>1</v>
       </c>
       <c r="M28" s="0">
-        <v>0.85</v>
-      </c>
-      <c r="N28" s="0">
-        <v>28670.5882352941</v>
-      </c>
-      <c r="P28" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="0" t="b">
         <v>0</v>
@@ -1889,7 +1793,7 @@
     <row outlineLevel="0" r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-09200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B29" s="0">
@@ -1897,11 +1801,11 @@
       </c>
       <c r="C29" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D29" s="1">
-        <v>45965</v>
+        <v>45987</v>
       </c>
       <c r="E29" s="0" t="inlineStr">
         <is>
@@ -1909,36 +1813,36 @@
         </is>
       </c>
       <c r="F29" s="0">
-        <v>862</v>
+        <v>4</v>
       </c>
       <c r="G29" s="0">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="H29" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="0">
         <v>0</v>
       </c>
       <c r="K29" s="0" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L29" s="0">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
       <c r="M29" s="0">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N29" s="0">
-        <v>1134.21054054826</v>
+        <v>4</v>
       </c>
       <c r="O29" s="0">
-        <v>507.777791229295</v>
+        <v>1</v>
       </c>
       <c r="P29" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="0" t="b">
         <v>0</v>
@@ -1947,7 +1851,7 @@
     <row outlineLevel="0" r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-09200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B30" s="0">
@@ -1955,48 +1859,33 @@
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D30" s="1">
-        <v>45895</v>
+        <v>45987</v>
       </c>
       <c r="E30" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F30" s="0">
-        <v>156</v>
-      </c>
-      <c r="G30" s="0">
-        <v>0</v>
-      </c>
       <c r="H30" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="0">
         <v>0</v>
       </c>
       <c r="K30" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L30" s="0">
-        <v>0.850000023841858</v>
+        <v>1</v>
       </c>
       <c r="M30" s="0">
-        <v>0.95</v>
-      </c>
-      <c r="N30" s="0">
-        <v>193.188849070363</v>
-      </c>
-      <c r="O30" s="0">
-        <v>0</v>
-      </c>
-      <c r="P30" s="0">
-        <v>2.4767801162867</v>
+        <v>1</v>
       </c>
       <c r="S30" s="0" t="b">
         <v>0</v>
@@ -2005,7 +1894,7 @@
     <row outlineLevel="0" r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-09200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B31" s="0">
@@ -2013,48 +1902,33 @@
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D31" s="1">
-        <v>45912</v>
+        <v>45987</v>
       </c>
       <c r="E31" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F31" s="0">
-        <v>2867</v>
-      </c>
-      <c r="G31" s="0">
-        <v>5</v>
-      </c>
       <c r="H31" s="0">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I31" s="0">
         <v>0</v>
       </c>
       <c r="K31" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L31" s="0">
         <v>1</v>
       </c>
       <c r="M31" s="0">
-        <v>0.85</v>
-      </c>
-      <c r="N31" s="0">
-        <v>3372.94117647059</v>
-      </c>
-      <c r="O31" s="0">
-        <v>5</v>
-      </c>
-      <c r="P31" s="0">
-        <v>129.411764705882</v>
+        <v>1</v>
       </c>
       <c r="S31" s="0" t="b">
         <v>0</v>
@@ -2063,7 +1937,7 @@
     <row outlineLevel="0" r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-12100-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B32" s="0">
@@ -2071,48 +1945,33 @@
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D32" s="1">
-        <v>45925</v>
+        <v>45986</v>
       </c>
       <c r="E32" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F32" s="0">
-        <v>3756</v>
-      </c>
-      <c r="G32" s="0">
-        <v>16</v>
-      </c>
       <c r="H32" s="0">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
       </c>
       <c r="K32" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L32" s="0">
         <v>1</v>
       </c>
       <c r="M32" s="0">
-        <v>0.85</v>
-      </c>
-      <c r="N32" s="0">
-        <v>4418.82352941176</v>
-      </c>
-      <c r="O32" s="0">
-        <v>16</v>
-      </c>
-      <c r="P32" s="0">
-        <v>371.764705882353</v>
+        <v>1</v>
       </c>
       <c r="S32" s="0" t="b">
         <v>0</v>
@@ -2121,7 +1980,7 @@
     <row outlineLevel="0" r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-12100-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B33" s="0">
@@ -2133,44 +1992,29 @@
         </is>
       </c>
       <c r="D33" s="1">
-        <v>45938</v>
+        <v>45986</v>
       </c>
       <c r="E33" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F33" s="0">
-        <v>3906</v>
-      </c>
-      <c r="G33" s="0">
-        <v>643</v>
-      </c>
       <c r="H33" s="0">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="I33" s="0">
         <v>0</v>
       </c>
       <c r="K33" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L33" s="0">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
       <c r="M33" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="N33" s="0">
-        <v>4568.42110995771</v>
-      </c>
-      <c r="O33" s="0">
-        <v>714.444463370759</v>
-      </c>
-      <c r="P33" s="0">
-        <v>176.608189350644</v>
+        <v>1</v>
       </c>
       <c r="S33" s="0" t="b">
         <v>0</v>
@@ -2179,7 +2023,7 @@
     <row outlineLevel="0" r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-12100-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B34" s="0">
@@ -2187,11 +2031,11 @@
       </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D34" s="1">
-        <v>45946</v>
+        <v>45986</v>
       </c>
       <c r="E34" s="0" t="inlineStr">
         <is>
@@ -2199,13 +2043,10 @@
         </is>
       </c>
       <c r="F34" s="0">
-        <v>1126</v>
-      </c>
-      <c r="G34" s="0">
-        <v>3450</v>
+        <v>17</v>
       </c>
       <c r="H34" s="0">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="I34" s="0">
         <v>0</v>
@@ -2216,19 +2057,16 @@
         </is>
       </c>
       <c r="L34" s="0">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
       <c r="M34" s="0">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="N34" s="0">
-        <v>1316.95908085314</v>
-      </c>
-      <c r="O34" s="0">
-        <v>3833.33343488199</v>
+        <v>17</v>
       </c>
       <c r="P34" s="0">
-        <v>67.8362581611744</v>
+        <v>1</v>
       </c>
       <c r="S34" s="0" t="b">
         <v>0</v>
@@ -2237,7 +2075,7 @@
     <row outlineLevel="0" r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-12100-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B35" s="0">
@@ -2245,11 +2083,11 @@
       </c>
       <c r="C35" s="0" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D35" s="1">
-        <v>45965</v>
+        <v>45986</v>
       </c>
       <c r="E35" s="0" t="inlineStr">
         <is>
@@ -2280,7 +2118,7 @@
     <row outlineLevel="0" r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-12100-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B36" s="0">
@@ -2288,23 +2126,17 @@
       </c>
       <c r="C36" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D36" s="1">
-        <v>45895</v>
+        <v>45986</v>
       </c>
       <c r="E36" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F36" s="0">
-        <v>1</v>
-      </c>
-      <c r="G36" s="0">
-        <v>0</v>
-      </c>
       <c r="H36" s="0">
         <v>0</v>
       </c>
@@ -2313,23 +2145,14 @@
       </c>
       <c r="K36" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L36" s="0">
         <v>1</v>
       </c>
       <c r="M36" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="N36" s="0">
-        <v>1.11111111111111</v>
-      </c>
-      <c r="O36" s="0">
-        <v>0</v>
-      </c>
-      <c r="P36" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="0" t="b">
         <v>0</v>
@@ -2338,7 +2161,7 @@
     <row outlineLevel="0" r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-12100-05400-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B37" s="0">
@@ -2346,11 +2169,11 @@
       </c>
       <c r="C37" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D37" s="1">
-        <v>45912</v>
+        <v>45944</v>
       </c>
       <c r="E37" s="0" t="inlineStr">
         <is>
@@ -2358,10 +2181,7 @@
         </is>
       </c>
       <c r="F37" s="0">
-        <v>109</v>
-      </c>
-      <c r="G37" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -2371,20 +2191,17 @@
       </c>
       <c r="K37" s="0" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L37" s="0">
         <v>1</v>
       </c>
       <c r="M37" s="0">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="N37" s="0">
-        <v>136.25</v>
-      </c>
-      <c r="O37" s="0">
-        <v>0</v>
+        <v>5.55555555555556</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
@@ -2396,7 +2213,7 @@
     <row outlineLevel="0" r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-12100-05400-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B38" s="0">
@@ -2404,11 +2221,11 @@
       </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D38" s="1">
-        <v>45925</v>
+        <v>45944</v>
       </c>
       <c r="E38" s="0" t="inlineStr">
         <is>
@@ -2416,30 +2233,36 @@
         </is>
       </c>
       <c r="F38" s="0">
-        <v>209</v>
+        <v>1</v>
+      </c>
+      <c r="G38" s="0">
+        <v>20</v>
       </c>
       <c r="H38" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I38" s="0">
         <v>0</v>
       </c>
       <c r="K38" s="0" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L38" s="0">
         <v>1</v>
       </c>
       <c r="M38" s="0">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="N38" s="0">
-        <v>261.25</v>
+        <v>1.11111111111111</v>
+      </c>
+      <c r="O38" s="0">
+        <v>20</v>
       </c>
       <c r="P38" s="0">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S38" s="0" t="b">
         <v>0</v>
@@ -2448,7 +2271,7 @@
     <row outlineLevel="0" r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-12100-05400-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B39" s="0">
@@ -2460,7 +2283,7 @@
         </is>
       </c>
       <c r="D39" s="1">
-        <v>45938</v>
+        <v>45944</v>
       </c>
       <c r="E39" s="0" t="inlineStr">
         <is>
@@ -2468,36 +2291,30 @@
         </is>
       </c>
       <c r="F39" s="0">
-        <v>1089</v>
-      </c>
-      <c r="G39" s="0">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="H39" s="0">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="I39" s="0">
         <v>0</v>
       </c>
       <c r="K39" s="0" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L39" s="0">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
       <c r="M39" s="0">
-        <v>0.902236938476563</v>
+        <v>0.95</v>
       </c>
       <c r="N39" s="0">
-        <v>1270.52634953477</v>
-      </c>
-      <c r="O39" s="0">
-        <v>0</v>
+        <v>601.052631578947</v>
       </c>
       <c r="P39" s="0">
-        <v>220.504573059753</v>
+        <v>28.4210526315789</v>
       </c>
       <c r="S39" s="0" t="b">
         <v>0</v>
@@ -2506,7 +2323,7 @@
     <row outlineLevel="0" r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-12100-05400-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B40" s="0">
@@ -2514,11 +2331,11 @@
       </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D40" s="1">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
@@ -2526,30 +2343,30 @@
         </is>
       </c>
       <c r="F40" s="0">
-        <v>3365</v>
+        <v>1</v>
       </c>
       <c r="H40" s="0">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="I40" s="0">
         <v>0</v>
       </c>
       <c r="K40" s="0" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L40" s="0">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
       <c r="M40" s="0">
         <v>0.9</v>
       </c>
       <c r="N40" s="0">
-        <v>3935.67256400606</v>
+        <v>1.11111111111111</v>
       </c>
       <c r="P40" s="0">
-        <v>514.619889498564</v>
+        <v>0</v>
       </c>
       <c r="S40" s="0" t="b">
         <v>0</v>
@@ -2558,7 +2375,7 @@
     <row outlineLevel="0" r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-12100-05400-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B41" s="0">
@@ -2566,48 +2383,33 @@
       </c>
       <c r="C41" s="0" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D41" s="1">
-        <v>45965</v>
+        <v>45945</v>
       </c>
       <c r="E41" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F41" s="0">
-        <v>713</v>
-      </c>
-      <c r="G41" s="0">
-        <v>1</v>
-      </c>
       <c r="H41" s="0">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="I41" s="0">
         <v>0</v>
       </c>
       <c r="K41" s="0" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L41" s="0">
-        <v>0.899999976158142</v>
+        <v>1</v>
       </c>
       <c r="M41" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="N41" s="0">
-        <v>1131.74606172706</v>
-      </c>
-      <c r="O41" s="0">
-        <v>1.1111111405455</v>
-      </c>
-      <c r="P41" s="0">
-        <v>168.253972711176</v>
+        <v>1</v>
       </c>
       <c r="S41" s="0" t="b">
         <v>0</v>
@@ -2616,7 +2418,7 @@
     <row outlineLevel="0" r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-12100-05400-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B42" s="0">
@@ -2624,17 +2426,20 @@
       </c>
       <c r="C42" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="D42" s="1">
-        <v>45895</v>
+        <v>45944</v>
       </c>
       <c r="E42" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
+      <c r="F42" s="0">
+        <v>18</v>
+      </c>
       <c r="H42" s="0">
         <v>0</v>
       </c>
@@ -2643,14 +2448,20 @@
       </c>
       <c r="K42" s="0" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L42" s="0">
         <v>1</v>
       </c>
       <c r="M42" s="0">
-        <v>1</v>
+        <v>0.9</v>
+      </c>
+      <c r="N42" s="0">
+        <v>20</v>
+      </c>
+      <c r="P42" s="0">
+        <v>0</v>
       </c>
       <c r="S42" s="0" t="b">
         <v>0</v>
@@ -2659,7 +2470,7 @@
     <row outlineLevel="0" r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-22100-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B43" s="0">
@@ -2667,23 +2478,17 @@
       </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D43" s="1">
-        <v>45912</v>
+        <v>45939</v>
       </c>
       <c r="E43" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F43" s="0">
-        <v>4</v>
-      </c>
-      <c r="G43" s="0">
-        <v>0</v>
-      </c>
       <c r="H43" s="0">
         <v>0</v>
       </c>
@@ -2692,23 +2497,14 @@
       </c>
       <c r="K43" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L43" s="0">
         <v>1</v>
       </c>
       <c r="M43" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="N43" s="0">
-        <v>4.44444444444444</v>
-      </c>
-      <c r="O43" s="0">
-        <v>0</v>
-      </c>
-      <c r="P43" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="0" t="b">
         <v>0</v>
@@ -2717,7 +2513,7 @@
     <row outlineLevel="0" r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-22100-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B44" s="0">
@@ -2725,11 +2521,11 @@
       </c>
       <c r="C44" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D44" s="1">
-        <v>45925</v>
+        <v>45986</v>
       </c>
       <c r="E44" s="0" t="inlineStr">
         <is>
@@ -2760,7 +2556,7 @@
     <row outlineLevel="0" r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-22100-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B45" s="0">
@@ -2768,17 +2564,23 @@
       </c>
       <c r="C45" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D45" s="1">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E45" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
+      <c r="F45" s="0">
+        <v>66</v>
+      </c>
+      <c r="G45" s="0">
+        <v>6</v>
+      </c>
       <c r="H45" s="0">
         <v>0</v>
       </c>
@@ -2787,14 +2589,23 @@
       </c>
       <c r="K45" s="0" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L45" s="0">
         <v>1</v>
       </c>
       <c r="M45" s="0">
-        <v>1</v>
+        <v>0.9</v>
+      </c>
+      <c r="N45" s="0">
+        <v>73.3333333333333</v>
+      </c>
+      <c r="O45" s="0">
+        <v>6</v>
+      </c>
+      <c r="P45" s="0">
+        <v>0</v>
       </c>
       <c r="S45" s="0" t="b">
         <v>0</v>
@@ -2803,7 +2614,7 @@
     <row outlineLevel="0" r="46">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-22100-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B46" s="0">
@@ -2811,11 +2622,11 @@
       </c>
       <c r="C46" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D46" s="1">
-        <v>45946</v>
+        <v>45986</v>
       </c>
       <c r="E46" s="0" t="inlineStr">
         <is>
@@ -2830,7 +2641,7 @@
       </c>
       <c r="K46" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L46" s="0">
@@ -2846,7 +2657,7 @@
     <row outlineLevel="0" r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-22100-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B47" s="0">
@@ -2854,16 +2665,22 @@
       </c>
       <c r="C47" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D47" s="1">
-        <v>45951</v>
+        <v>45939</v>
       </c>
       <c r="E47" s="0" t="inlineStr">
         <is>
-          <t>heli</t>
-        </is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F47" s="0">
+        <v>1160</v>
+      </c>
+      <c r="G47" s="0">
+        <v>1</v>
       </c>
       <c r="H47" s="0">
         <v>0</v>
@@ -2873,14 +2690,23 @@
       </c>
       <c r="K47" s="0" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L47" s="0">
         <v>1</v>
       </c>
       <c r="M47" s="0">
-        <v>1</v>
+        <v>0.9</v>
+      </c>
+      <c r="N47" s="0">
+        <v>1288.88888888889</v>
+      </c>
+      <c r="O47" s="0">
+        <v>1</v>
+      </c>
+      <c r="P47" s="0">
+        <v>0</v>
       </c>
       <c r="S47" s="0" t="b">
         <v>0</v>
@@ -2889,7 +2715,7 @@
     <row outlineLevel="0" r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-22100-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B48" s="0">
@@ -2897,11 +2723,11 @@
       </c>
       <c r="C48" s="0" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D48" s="1">
-        <v>45965</v>
+        <v>45986</v>
       </c>
       <c r="E48" s="0" t="inlineStr">
         <is>
@@ -2932,7 +2758,7 @@
     <row outlineLevel="0" r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-22100-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B49" s="0">
@@ -2940,23 +2766,17 @@
       </c>
       <c r="C49" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D49" s="1">
-        <v>45895</v>
+        <v>45939</v>
       </c>
       <c r="E49" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F49" s="0">
-        <v>463</v>
-      </c>
-      <c r="G49" s="0">
-        <v>0</v>
-      </c>
       <c r="H49" s="0">
         <v>0</v>
       </c>
@@ -2965,23 +2785,14 @@
       </c>
       <c r="K49" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L49" s="0">
-        <v>0.899999976158142</v>
+        <v>1</v>
       </c>
       <c r="M49" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="N49" s="0">
-        <v>571.604953413965</v>
-      </c>
-      <c r="O49" s="0">
-        <v>0</v>
-      </c>
-      <c r="P49" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="0" t="b">
         <v>0</v>
@@ -2990,7 +2801,7 @@
     <row outlineLevel="0" r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-22100-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B50" s="0">
@@ -2998,48 +2809,33 @@
       </c>
       <c r="C50" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D50" s="1">
-        <v>45912</v>
+        <v>45986</v>
       </c>
       <c r="E50" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F50" s="0">
-        <v>751</v>
-      </c>
-      <c r="G50" s="0">
-        <v>0</v>
-      </c>
       <c r="H50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="0">
         <v>0</v>
       </c>
       <c r="K50" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L50" s="0">
         <v>1</v>
       </c>
       <c r="M50" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="N50" s="0">
-        <v>834.444444444444</v>
-      </c>
-      <c r="O50" s="0">
-        <v>0</v>
-      </c>
-      <c r="P50" s="0">
-        <v>1.11111111111111</v>
+        <v>1</v>
       </c>
       <c r="S50" s="0" t="b">
         <v>0</v>
@@ -3048,7 +2844,7 @@
     <row outlineLevel="0" r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-22100-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B51" s="0">
@@ -3060,7 +2856,7 @@
         </is>
       </c>
       <c r="D51" s="1">
-        <v>45925</v>
+        <v>45939</v>
       </c>
       <c r="E51" s="0" t="inlineStr">
         <is>
@@ -3068,13 +2864,10 @@
         </is>
       </c>
       <c r="F51" s="0">
-        <v>482</v>
-      </c>
-      <c r="G51" s="0">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H51" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I51" s="0">
         <v>0</v>
@@ -3091,13 +2884,10 @@
         <v>0.9</v>
       </c>
       <c r="N51" s="0">
-        <v>535.555555555556</v>
-      </c>
-      <c r="O51" s="0">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P51" s="0">
-        <v>13.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="S51" s="0" t="b">
         <v>0</v>
@@ -3106,7 +2896,7 @@
     <row outlineLevel="0" r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-22100-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B52" s="0">
@@ -3118,44 +2908,29 @@
         </is>
       </c>
       <c r="D52" s="1">
-        <v>45938</v>
+        <v>45986</v>
       </c>
       <c r="E52" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F52" s="0">
-        <v>362</v>
-      </c>
-      <c r="G52" s="0">
-        <v>0</v>
-      </c>
       <c r="H52" s="0">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
       </c>
       <c r="K52" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L52" s="0">
         <v>1</v>
       </c>
       <c r="M52" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="N52" s="0">
-        <v>402.222222222222</v>
-      </c>
-      <c r="O52" s="0">
-        <v>0</v>
-      </c>
-      <c r="P52" s="0">
-        <v>11.1111111111111</v>
+        <v>1</v>
       </c>
       <c r="S52" s="0" t="b">
         <v>0</v>
@@ -3164,7 +2939,7 @@
     <row outlineLevel="0" r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-25200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B53" s="0">
@@ -3172,48 +2947,33 @@
       </c>
       <c r="C53" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D53" s="1">
-        <v>45946</v>
+        <v>45982</v>
       </c>
       <c r="E53" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F53" s="0">
-        <v>308</v>
-      </c>
-      <c r="G53" s="0">
-        <v>1</v>
-      </c>
       <c r="H53" s="0">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I53" s="0">
         <v>0</v>
       </c>
       <c r="K53" s="0" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L53" s="0">
         <v>1</v>
       </c>
       <c r="M53" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="N53" s="0">
-        <v>342.222222222222</v>
-      </c>
-      <c r="O53" s="0">
-        <v>1</v>
-      </c>
-      <c r="P53" s="0">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="S53" s="0" t="b">
         <v>0</v>
@@ -3222,7 +2982,7 @@
     <row outlineLevel="0" r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-25200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B54" s="0">
@@ -3230,20 +2990,17 @@
       </c>
       <c r="C54" s="0" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="D54" s="1">
-        <v>45965</v>
+        <v>45985</v>
       </c>
       <c r="E54" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F54" s="0">
-        <v>1</v>
-      </c>
       <c r="H54" s="0">
         <v>0</v>
       </c>
@@ -3252,20 +3009,14 @@
       </c>
       <c r="K54" s="0" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L54" s="0">
         <v>1</v>
       </c>
       <c r="M54" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="N54" s="0">
-        <v>1.42857142857143</v>
-      </c>
-      <c r="P54" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" s="0" t="b">
         <v>0</v>
@@ -3274,7 +3025,7 @@
     <row outlineLevel="0" r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>930-071700-20600-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-25200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B55" s="0">
@@ -3282,11 +3033,11 @@
       </c>
       <c r="C55" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D55" s="1">
-        <v>45777</v>
+        <v>45982</v>
       </c>
       <c r="E55" s="0" t="inlineStr">
         <is>
@@ -3317,7 +3068,7 @@
     <row outlineLevel="0" r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>930-071700-20600-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-25200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B56" s="0">
@@ -3325,11 +3076,11 @@
       </c>
       <c r="C56" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D56" s="1">
-        <v>45805</v>
+        <v>45985</v>
       </c>
       <c r="E56" s="0" t="inlineStr">
         <is>
@@ -3360,7 +3111,7 @@
     <row outlineLevel="0" r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
-          <t>930-071700-20600-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-25200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B57" s="0">
@@ -3368,33 +3119,48 @@
       </c>
       <c r="C57" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D57" s="1">
-        <v>45825</v>
+        <v>45982</v>
       </c>
       <c r="E57" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
+      <c r="F57" s="0">
+        <v>538</v>
+      </c>
+      <c r="G57" s="0">
+        <v>1</v>
+      </c>
       <c r="H57" s="0">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="I57" s="0">
         <v>0</v>
       </c>
       <c r="K57" s="0" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L57" s="0">
         <v>1</v>
       </c>
       <c r="M57" s="0">
-        <v>1</v>
+        <v>0.9</v>
+      </c>
+      <c r="N57" s="0">
+        <v>597.777777777778</v>
+      </c>
+      <c r="O57" s="0">
+        <v>1</v>
+      </c>
+      <c r="P57" s="0">
+        <v>145.555555555556</v>
       </c>
       <c r="S57" s="0" t="b">
         <v>0</v>
@@ -3403,7 +3169,7 @@
     <row outlineLevel="0" r="58">
       <c r="A58" s="0" t="inlineStr">
         <is>
-          <t>930-071700-20600-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-25200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B58" s="0">
@@ -3411,20 +3177,17 @@
       </c>
       <c r="C58" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="D58" s="1">
-        <v>45937</v>
+        <v>45985</v>
       </c>
       <c r="E58" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F58" s="0">
-        <v>535</v>
-      </c>
       <c r="H58" s="0">
         <v>0</v>
       </c>
@@ -3433,20 +3196,14 @@
       </c>
       <c r="K58" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L58" s="0">
-        <v>0.800000011920929</v>
+        <v>1</v>
       </c>
       <c r="M58" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="N58" s="0">
-        <v>743.055544483165</v>
-      </c>
-      <c r="P58" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" s="0" t="b">
         <v>0</v>
@@ -3455,7 +3212,7 @@
     <row outlineLevel="0" r="59">
       <c r="A59" s="0" t="inlineStr">
         <is>
-          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
+          <t>930-053800-25200-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
       <c r="B59" s="0">
@@ -3463,23 +3220,17 @@
       </c>
       <c r="C59" s="0" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="D59" s="1">
-        <v>45959</v>
+        <v>45982</v>
       </c>
       <c r="E59" s="0" t="inlineStr">
         <is>
           <t>snrkl</t>
         </is>
       </c>
-      <c r="F59" s="0">
-        <v>103</v>
-      </c>
-      <c r="G59" s="0">
-        <v>19</v>
-      </c>
       <c r="H59" s="0">
         <v>0</v>
       </c>
@@ -3492,19 +3243,10 @@
         </is>
       </c>
       <c r="L59" s="0">
-        <v>0.600000023841858</v>
+        <v>1</v>
       </c>
       <c r="M59" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="N59" s="0">
-        <v>214.583324806558</v>
-      </c>
-      <c r="O59" s="0">
-        <v>38</v>
-      </c>
-      <c r="P59" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" s="0" t="b">
         <v>0</v>
@@ -3513,49 +3255,3115 @@
     <row outlineLevel="0" r="60">
       <c r="A60" s="0" t="inlineStr">
         <is>
+          <t>930-053800-25200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B60" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="D60" s="1">
+        <v>45985</v>
+      </c>
+      <c r="E60" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H60" s="0">
+        <v>0</v>
+      </c>
+      <c r="I60" s="0">
+        <v>0</v>
+      </c>
+      <c r="K60" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L60" s="0">
+        <v>1</v>
+      </c>
+      <c r="M60" s="0">
+        <v>1</v>
+      </c>
+      <c r="S60" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>930-053800-25200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B61" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D61" s="1">
+        <v>45982</v>
+      </c>
+      <c r="E61" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H61" s="0">
+        <v>0</v>
+      </c>
+      <c r="I61" s="0">
+        <v>0</v>
+      </c>
+      <c r="K61" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L61" s="0">
+        <v>1</v>
+      </c>
+      <c r="M61" s="0">
+        <v>1</v>
+      </c>
+      <c r="S61" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>930-053800-25200-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B62" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D62" s="1">
+        <v>45985</v>
+      </c>
+      <c r="E62" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H62" s="0">
+        <v>0</v>
+      </c>
+      <c r="I62" s="0">
+        <v>0</v>
+      </c>
+      <c r="K62" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L62" s="0">
+        <v>1</v>
+      </c>
+      <c r="M62" s="0">
+        <v>1</v>
+      </c>
+      <c r="S62" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>930-054700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B63" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D63" s="1">
+        <v>45938</v>
+      </c>
+      <c r="E63" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F63" s="0">
+        <v>90</v>
+      </c>
+      <c r="G63" s="0">
+        <v>6</v>
+      </c>
+      <c r="H63" s="0">
+        <v>0</v>
+      </c>
+      <c r="I63" s="0">
+        <v>0</v>
+      </c>
+      <c r="K63" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L63" s="0">
+        <v>0.980000019073486</v>
+      </c>
+      <c r="M63" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N63" s="0">
+        <v>102.040814340537</v>
+      </c>
+      <c r="O63" s="0">
+        <v>6</v>
+      </c>
+      <c r="P63" s="0">
+        <v>0</v>
+      </c>
+      <c r="S63" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>930-054700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B64" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D64" s="1">
+        <v>45938</v>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F64" s="0">
+        <v>88</v>
+      </c>
+      <c r="G64" s="0">
+        <v>22</v>
+      </c>
+      <c r="H64" s="0">
+        <v>0</v>
+      </c>
+      <c r="I64" s="0">
+        <v>0</v>
+      </c>
+      <c r="K64" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L64" s="0">
+        <v>0.980000019073486</v>
+      </c>
+      <c r="M64" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N64" s="0">
+        <v>99.7732406885247</v>
+      </c>
+      <c r="O64" s="0">
+        <v>22</v>
+      </c>
+      <c r="P64" s="0">
+        <v>0</v>
+      </c>
+      <c r="S64" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>930-054700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B65" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D65" s="1">
+        <v>45938</v>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F65" s="0">
+        <v>1019</v>
+      </c>
+      <c r="H65" s="0">
+        <v>0</v>
+      </c>
+      <c r="I65" s="0">
+        <v>0</v>
+      </c>
+      <c r="K65" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L65" s="0">
+        <v>0.980000019073486</v>
+      </c>
+      <c r="M65" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N65" s="0">
+        <v>1155.32877570008</v>
+      </c>
+      <c r="P65" s="0">
+        <v>0</v>
+      </c>
+      <c r="S65" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>930-054700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B66" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="D66" s="1">
+        <v>45938</v>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H66" s="0">
+        <v>0</v>
+      </c>
+      <c r="I66" s="0">
+        <v>0</v>
+      </c>
+      <c r="K66" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L66" s="0">
+        <v>1</v>
+      </c>
+      <c r="M66" s="0">
+        <v>1</v>
+      </c>
+      <c r="S66" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>930-054700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B67" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D67" s="1">
+        <v>45938</v>
+      </c>
+      <c r="E67" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F67" s="0">
+        <v>105</v>
+      </c>
+      <c r="H67" s="0">
+        <v>0</v>
+      </c>
+      <c r="I67" s="0">
+        <v>0</v>
+      </c>
+      <c r="K67" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L67" s="0">
+        <v>0.980000019073486</v>
+      </c>
+      <c r="M67" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N67" s="0">
+        <v>119.047616730626</v>
+      </c>
+      <c r="P67" s="0">
+        <v>0</v>
+      </c>
+      <c r="S67" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B68" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D68" s="1">
+        <v>45895</v>
+      </c>
+      <c r="E68" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H68" s="0">
+        <v>0</v>
+      </c>
+      <c r="I68" s="0">
+        <v>0</v>
+      </c>
+      <c r="K68" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L68" s="0">
+        <v>1</v>
+      </c>
+      <c r="M68" s="0">
+        <v>1</v>
+      </c>
+      <c r="S68" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B69" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D69" s="1">
+        <v>45912</v>
+      </c>
+      <c r="E69" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F69" s="0">
+        <v>79</v>
+      </c>
+      <c r="G69" s="0">
+        <v>0</v>
+      </c>
+      <c r="H69" s="0">
+        <v>0</v>
+      </c>
+      <c r="I69" s="0">
+        <v>0</v>
+      </c>
+      <c r="K69" s="0" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L69" s="0">
+        <v>1</v>
+      </c>
+      <c r="M69" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="N69" s="0">
+        <v>98.75</v>
+      </c>
+      <c r="O69" s="0">
+        <v>0</v>
+      </c>
+      <c r="P69" s="0">
+        <v>0</v>
+      </c>
+      <c r="S69" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B70" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D70" s="1">
+        <v>45925</v>
+      </c>
+      <c r="E70" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F70" s="0">
+        <v>391</v>
+      </c>
+      <c r="G70" s="0">
+        <v>1</v>
+      </c>
+      <c r="H70" s="0">
+        <v>0</v>
+      </c>
+      <c r="I70" s="0">
+        <v>0</v>
+      </c>
+      <c r="K70" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L70" s="0">
+        <v>1</v>
+      </c>
+      <c r="M70" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="N70" s="0">
+        <v>488.75</v>
+      </c>
+      <c r="O70" s="0">
+        <v>1</v>
+      </c>
+      <c r="P70" s="0">
+        <v>0</v>
+      </c>
+      <c r="S70" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B71" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D71" s="1">
+        <v>45938</v>
+      </c>
+      <c r="E71" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F71" s="0">
+        <v>5462</v>
+      </c>
+      <c r="G71" s="0">
+        <v>142</v>
+      </c>
+      <c r="H71" s="0">
+        <v>0</v>
+      </c>
+      <c r="I71" s="0">
+        <v>0</v>
+      </c>
+      <c r="K71" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L71" s="0">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="M71" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N71" s="0">
+        <v>6388.3041737299</v>
+      </c>
+      <c r="O71" s="0">
+        <v>157.777781957462</v>
+      </c>
+      <c r="P71" s="0">
+        <v>0</v>
+      </c>
+      <c r="S71" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B72" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D72" s="1">
+        <v>45946</v>
+      </c>
+      <c r="E72" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F72" s="0">
+        <v>5334</v>
+      </c>
+      <c r="G72" s="0">
+        <v>814</v>
+      </c>
+      <c r="H72" s="0">
+        <v>0</v>
+      </c>
+      <c r="I72" s="0">
+        <v>0</v>
+      </c>
+      <c r="K72" s="0" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L72" s="0">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="M72" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N72" s="0">
+        <v>6238.59656951214</v>
+      </c>
+      <c r="O72" s="0">
+        <v>904.444468404041</v>
+      </c>
+      <c r="P72" s="0">
+        <v>0</v>
+      </c>
+      <c r="S72" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B73" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D73" s="1">
+        <v>45951</v>
+      </c>
+      <c r="E73" s="0" t="inlineStr">
+        <is>
+          <t>heli</t>
+        </is>
+      </c>
+      <c r="F73" s="0">
+        <v>24370</v>
+      </c>
+      <c r="H73" s="0">
+        <v>0</v>
+      </c>
+      <c r="I73" s="0">
+        <v>0</v>
+      </c>
+      <c r="K73" s="0" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L73" s="0">
+        <v>1</v>
+      </c>
+      <c r="M73" s="0">
+        <v>0.85</v>
+      </c>
+      <c r="N73" s="0">
+        <v>28670.5882352941</v>
+      </c>
+      <c r="P73" s="0">
+        <v>0</v>
+      </c>
+      <c r="S73" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B74" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D74" s="1">
+        <v>45965</v>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F74" s="0">
+        <v>862</v>
+      </c>
+      <c r="G74" s="0">
+        <v>457</v>
+      </c>
+      <c r="H74" s="0">
+        <v>0</v>
+      </c>
+      <c r="I74" s="0">
+        <v>0</v>
+      </c>
+      <c r="K74" s="0" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L74" s="0">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="M74" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="N74" s="0">
+        <v>1134.21054054826</v>
+      </c>
+      <c r="O74" s="0">
+        <v>507.777791229295</v>
+      </c>
+      <c r="P74" s="0">
+        <v>0</v>
+      </c>
+      <c r="S74" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B75" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D75" s="1">
+        <v>45895</v>
+      </c>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F75" s="0">
+        <v>156</v>
+      </c>
+      <c r="G75" s="0">
+        <v>0</v>
+      </c>
+      <c r="H75" s="0">
+        <v>2</v>
+      </c>
+      <c r="I75" s="0">
+        <v>0</v>
+      </c>
+      <c r="K75" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L75" s="0">
+        <v>0.850000023841858</v>
+      </c>
+      <c r="M75" s="0">
+        <v>0.95</v>
+      </c>
+      <c r="N75" s="0">
+        <v>193.188849070363</v>
+      </c>
+      <c r="O75" s="0">
+        <v>0</v>
+      </c>
+      <c r="P75" s="0">
+        <v>2.4767801162867</v>
+      </c>
+      <c r="S75" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B76" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D76" s="1">
+        <v>45912</v>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F76" s="0">
+        <v>2867</v>
+      </c>
+      <c r="G76" s="0">
+        <v>5</v>
+      </c>
+      <c r="H76" s="0">
+        <v>110</v>
+      </c>
+      <c r="I76" s="0">
+        <v>0</v>
+      </c>
+      <c r="K76" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L76" s="0">
+        <v>1</v>
+      </c>
+      <c r="M76" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N76" s="0">
+        <v>3185.55555555556</v>
+      </c>
+      <c r="O76" s="0">
+        <v>5</v>
+      </c>
+      <c r="P76" s="0">
+        <v>122.222222222222</v>
+      </c>
+      <c r="S76" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B77" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D77" s="1">
+        <v>45925</v>
+      </c>
+      <c r="E77" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F77" s="0">
+        <v>3756</v>
+      </c>
+      <c r="G77" s="0">
+        <v>16</v>
+      </c>
+      <c r="H77" s="0">
+        <v>316</v>
+      </c>
+      <c r="I77" s="0">
+        <v>0</v>
+      </c>
+      <c r="K77" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L77" s="0">
+        <v>1</v>
+      </c>
+      <c r="M77" s="0">
+        <v>0.85</v>
+      </c>
+      <c r="N77" s="0">
+        <v>4418.82352941176</v>
+      </c>
+      <c r="O77" s="0">
+        <v>16</v>
+      </c>
+      <c r="P77" s="0">
+        <v>371.764705882353</v>
+      </c>
+      <c r="S77" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B78" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D78" s="1">
+        <v>45938</v>
+      </c>
+      <c r="E78" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F78" s="0">
+        <v>3906</v>
+      </c>
+      <c r="G78" s="0">
+        <v>643</v>
+      </c>
+      <c r="H78" s="0">
+        <v>151</v>
+      </c>
+      <c r="I78" s="0">
+        <v>0</v>
+      </c>
+      <c r="K78" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L78" s="0">
+        <v>0.970000028610229</v>
+      </c>
+      <c r="M78" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N78" s="0">
+        <v>4474.22667215603</v>
+      </c>
+      <c r="O78" s="0">
+        <v>714.444463370759</v>
+      </c>
+      <c r="P78" s="0">
+        <v>172.966776112535</v>
+      </c>
+      <c r="S78" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B79" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D79" s="1">
+        <v>45946</v>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F79" s="0">
+        <v>1126</v>
+      </c>
+      <c r="G79" s="0">
+        <v>3450</v>
+      </c>
+      <c r="H79" s="0">
+        <v>58</v>
+      </c>
+      <c r="I79" s="0">
+        <v>0</v>
+      </c>
+      <c r="K79" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L79" s="0">
+        <v>0.970000028610229</v>
+      </c>
+      <c r="M79" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N79" s="0">
+        <v>1289.8052311438</v>
+      </c>
+      <c r="O79" s="0">
+        <v>3833.33343488199</v>
+      </c>
+      <c r="P79" s="0">
+        <v>66.4375696326292</v>
+      </c>
+      <c r="S79" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B80" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D80" s="1">
+        <v>45965</v>
+      </c>
+      <c r="E80" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H80" s="0">
+        <v>0</v>
+      </c>
+      <c r="I80" s="0">
+        <v>0</v>
+      </c>
+      <c r="K80" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L80" s="0">
+        <v>1</v>
+      </c>
+      <c r="M80" s="0">
+        <v>1</v>
+      </c>
+      <c r="S80" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B81" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D81" s="1">
+        <v>45895</v>
+      </c>
+      <c r="E81" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F81" s="0">
+        <v>1</v>
+      </c>
+      <c r="G81" s="0">
+        <v>0</v>
+      </c>
+      <c r="H81" s="0">
+        <v>0</v>
+      </c>
+      <c r="I81" s="0">
+        <v>0</v>
+      </c>
+      <c r="K81" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L81" s="0">
+        <v>1</v>
+      </c>
+      <c r="M81" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N81" s="0">
+        <v>1.11111111111111</v>
+      </c>
+      <c r="O81" s="0">
+        <v>0</v>
+      </c>
+      <c r="P81" s="0">
+        <v>0</v>
+      </c>
+      <c r="S81" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B82" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D82" s="1">
+        <v>45912</v>
+      </c>
+      <c r="E82" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F82" s="0">
+        <v>109</v>
+      </c>
+      <c r="G82" s="0">
+        <v>0</v>
+      </c>
+      <c r="H82" s="0">
+        <v>0</v>
+      </c>
+      <c r="I82" s="0">
+        <v>0</v>
+      </c>
+      <c r="K82" s="0" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L82" s="0">
+        <v>1</v>
+      </c>
+      <c r="M82" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="N82" s="0">
+        <v>136.25</v>
+      </c>
+      <c r="O82" s="0">
+        <v>0</v>
+      </c>
+      <c r="P82" s="0">
+        <v>0</v>
+      </c>
+      <c r="S82" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B83" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D83" s="1">
+        <v>45925</v>
+      </c>
+      <c r="E83" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F83" s="0">
+        <v>209</v>
+      </c>
+      <c r="H83" s="0">
+        <v>12</v>
+      </c>
+      <c r="I83" s="0">
+        <v>0</v>
+      </c>
+      <c r="K83" s="0" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L83" s="0">
+        <v>1</v>
+      </c>
+      <c r="M83" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="N83" s="0">
+        <v>261.25</v>
+      </c>
+      <c r="P83" s="0">
+        <v>15</v>
+      </c>
+      <c r="S83" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B84" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D84" s="1">
+        <v>45938</v>
+      </c>
+      <c r="E84" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F84" s="0">
+        <v>1089</v>
+      </c>
+      <c r="G84" s="0">
+        <v>0</v>
+      </c>
+      <c r="H84" s="0">
+        <v>189</v>
+      </c>
+      <c r="I84" s="0">
+        <v>0</v>
+      </c>
+      <c r="K84" s="0" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L84" s="0">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="M84" s="0">
+        <v>0.902236938476563</v>
+      </c>
+      <c r="N84" s="0">
+        <v>1270.52634953477</v>
+      </c>
+      <c r="O84" s="0">
+        <v>0</v>
+      </c>
+      <c r="P84" s="0">
+        <v>220.504573059753</v>
+      </c>
+      <c r="S84" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B85" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D85" s="1">
+        <v>45946</v>
+      </c>
+      <c r="E85" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F85" s="0">
+        <v>3365</v>
+      </c>
+      <c r="H85" s="0">
+        <v>440</v>
+      </c>
+      <c r="I85" s="0">
+        <v>0</v>
+      </c>
+      <c r="K85" s="0" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L85" s="0">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="M85" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N85" s="0">
+        <v>3935.67256400606</v>
+      </c>
+      <c r="P85" s="0">
+        <v>514.619889498564</v>
+      </c>
+      <c r="S85" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B86" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D86" s="1">
+        <v>45965</v>
+      </c>
+      <c r="E86" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F86" s="0">
+        <v>713</v>
+      </c>
+      <c r="G86" s="0">
+        <v>1</v>
+      </c>
+      <c r="H86" s="0">
+        <v>106</v>
+      </c>
+      <c r="I86" s="0">
+        <v>0</v>
+      </c>
+      <c r="K86" s="0" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L86" s="0">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="M86" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="N86" s="0">
+        <v>1131.74606172706</v>
+      </c>
+      <c r="O86" s="0">
+        <v>1.1111111405455</v>
+      </c>
+      <c r="P86" s="0">
+        <v>168.253972711176</v>
+      </c>
+      <c r="S86" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B87" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="D87" s="1">
+        <v>45895</v>
+      </c>
+      <c r="E87" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H87" s="0">
+        <v>0</v>
+      </c>
+      <c r="I87" s="0">
+        <v>0</v>
+      </c>
+      <c r="K87" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L87" s="0">
+        <v>1</v>
+      </c>
+      <c r="M87" s="0">
+        <v>1</v>
+      </c>
+      <c r="S87" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B88" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="D88" s="1">
+        <v>45912</v>
+      </c>
+      <c r="E88" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F88" s="0">
+        <v>4</v>
+      </c>
+      <c r="G88" s="0">
+        <v>0</v>
+      </c>
+      <c r="H88" s="0">
+        <v>0</v>
+      </c>
+      <c r="I88" s="0">
+        <v>0</v>
+      </c>
+      <c r="K88" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L88" s="0">
+        <v>1</v>
+      </c>
+      <c r="M88" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N88" s="0">
+        <v>4.44444444444444</v>
+      </c>
+      <c r="O88" s="0">
+        <v>0</v>
+      </c>
+      <c r="P88" s="0">
+        <v>0</v>
+      </c>
+      <c r="S88" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B89" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="D89" s="1">
+        <v>45925</v>
+      </c>
+      <c r="E89" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H89" s="0">
+        <v>0</v>
+      </c>
+      <c r="I89" s="0">
+        <v>0</v>
+      </c>
+      <c r="K89" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L89" s="0">
+        <v>1</v>
+      </c>
+      <c r="M89" s="0">
+        <v>1</v>
+      </c>
+      <c r="S89" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B90" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="D90" s="1">
+        <v>45938</v>
+      </c>
+      <c r="E90" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H90" s="0">
+        <v>0</v>
+      </c>
+      <c r="I90" s="0">
+        <v>0</v>
+      </c>
+      <c r="K90" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L90" s="0">
+        <v>1</v>
+      </c>
+      <c r="M90" s="0">
+        <v>1</v>
+      </c>
+      <c r="S90" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B91" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="D91" s="1">
+        <v>45946</v>
+      </c>
+      <c r="E91" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H91" s="0">
+        <v>0</v>
+      </c>
+      <c r="I91" s="0">
+        <v>0</v>
+      </c>
+      <c r="K91" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L91" s="0">
+        <v>1</v>
+      </c>
+      <c r="M91" s="0">
+        <v>1</v>
+      </c>
+      <c r="S91" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B92" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="D92" s="1">
+        <v>45951</v>
+      </c>
+      <c r="E92" s="0" t="inlineStr">
+        <is>
+          <t>heli</t>
+        </is>
+      </c>
+      <c r="H92" s="0">
+        <v>0</v>
+      </c>
+      <c r="I92" s="0">
+        <v>0</v>
+      </c>
+      <c r="K92" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L92" s="0">
+        <v>1</v>
+      </c>
+      <c r="M92" s="0">
+        <v>1</v>
+      </c>
+      <c r="S92" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B93" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="D93" s="1">
+        <v>45965</v>
+      </c>
+      <c r="E93" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H93" s="0">
+        <v>0</v>
+      </c>
+      <c r="I93" s="0">
+        <v>0</v>
+      </c>
+      <c r="K93" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L93" s="0">
+        <v>1</v>
+      </c>
+      <c r="M93" s="0">
+        <v>1</v>
+      </c>
+      <c r="S93" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B94" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D94" s="1">
+        <v>45895</v>
+      </c>
+      <c r="E94" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F94" s="0">
+        <v>463</v>
+      </c>
+      <c r="G94" s="0">
+        <v>0</v>
+      </c>
+      <c r="H94" s="0">
+        <v>0</v>
+      </c>
+      <c r="I94" s="0">
+        <v>0</v>
+      </c>
+      <c r="K94" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L94" s="0">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="M94" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N94" s="0">
+        <v>571.604953413965</v>
+      </c>
+      <c r="O94" s="0">
+        <v>0</v>
+      </c>
+      <c r="P94" s="0">
+        <v>0</v>
+      </c>
+      <c r="S94" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B95" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D95" s="1">
+        <v>45912</v>
+      </c>
+      <c r="E95" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F95" s="0">
+        <v>751</v>
+      </c>
+      <c r="G95" s="0">
+        <v>0</v>
+      </c>
+      <c r="H95" s="0">
+        <v>1</v>
+      </c>
+      <c r="I95" s="0">
+        <v>0</v>
+      </c>
+      <c r="K95" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L95" s="0">
+        <v>1</v>
+      </c>
+      <c r="M95" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N95" s="0">
+        <v>834.444444444444</v>
+      </c>
+      <c r="O95" s="0">
+        <v>0</v>
+      </c>
+      <c r="P95" s="0">
+        <v>1.11111111111111</v>
+      </c>
+      <c r="S95" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B96" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D96" s="1">
+        <v>45925</v>
+      </c>
+      <c r="E96" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F96" s="0">
+        <v>482</v>
+      </c>
+      <c r="G96" s="0">
+        <v>0</v>
+      </c>
+      <c r="H96" s="0">
+        <v>12</v>
+      </c>
+      <c r="I96" s="0">
+        <v>0</v>
+      </c>
+      <c r="K96" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L96" s="0">
+        <v>1</v>
+      </c>
+      <c r="M96" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N96" s="0">
+        <v>535.555555555556</v>
+      </c>
+      <c r="O96" s="0">
+        <v>0</v>
+      </c>
+      <c r="P96" s="0">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="S96" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B97" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D97" s="1">
+        <v>45938</v>
+      </c>
+      <c r="E97" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F97" s="0">
+        <v>362</v>
+      </c>
+      <c r="G97" s="0">
+        <v>0</v>
+      </c>
+      <c r="H97" s="0">
+        <v>10</v>
+      </c>
+      <c r="I97" s="0">
+        <v>0</v>
+      </c>
+      <c r="K97" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L97" s="0">
+        <v>1</v>
+      </c>
+      <c r="M97" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N97" s="0">
+        <v>402.222222222222</v>
+      </c>
+      <c r="O97" s="0">
+        <v>0</v>
+      </c>
+      <c r="P97" s="0">
+        <v>11.1111111111111</v>
+      </c>
+      <c r="S97" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B98" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D98" s="1">
+        <v>45946</v>
+      </c>
+      <c r="E98" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F98" s="0">
+        <v>308</v>
+      </c>
+      <c r="G98" s="0">
+        <v>1</v>
+      </c>
+      <c r="H98" s="0">
+        <v>54</v>
+      </c>
+      <c r="I98" s="0">
+        <v>0</v>
+      </c>
+      <c r="K98" s="0" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L98" s="0">
+        <v>1</v>
+      </c>
+      <c r="M98" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N98" s="0">
+        <v>342.222222222222</v>
+      </c>
+      <c r="O98" s="0">
+        <v>1</v>
+      </c>
+      <c r="P98" s="0">
+        <v>60</v>
+      </c>
+      <c r="S98" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B99" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D99" s="1">
+        <v>45965</v>
+      </c>
+      <c r="E99" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F99" s="0">
+        <v>1</v>
+      </c>
+      <c r="H99" s="0">
+        <v>0</v>
+      </c>
+      <c r="I99" s="0">
+        <v>0</v>
+      </c>
+      <c r="K99" s="0" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L99" s="0">
+        <v>1</v>
+      </c>
+      <c r="M99" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="N99" s="0">
+        <v>1.42857142857143</v>
+      </c>
+      <c r="P99" s="0">
+        <v>0</v>
+      </c>
+      <c r="S99" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-20600-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B100" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D100" s="1">
+        <v>45777</v>
+      </c>
+      <c r="E100" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H100" s="0">
+        <v>0</v>
+      </c>
+      <c r="I100" s="0">
+        <v>0</v>
+      </c>
+      <c r="K100" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L100" s="0">
+        <v>1</v>
+      </c>
+      <c r="M100" s="0">
+        <v>1</v>
+      </c>
+      <c r="S100" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-20600-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B101" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D101" s="1">
+        <v>45805</v>
+      </c>
+      <c r="E101" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H101" s="0">
+        <v>0</v>
+      </c>
+      <c r="I101" s="0">
+        <v>0</v>
+      </c>
+      <c r="K101" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L101" s="0">
+        <v>1</v>
+      </c>
+      <c r="M101" s="0">
+        <v>1</v>
+      </c>
+      <c r="S101" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-20600-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B102" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D102" s="1">
+        <v>45825</v>
+      </c>
+      <c r="E102" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H102" s="0">
+        <v>0</v>
+      </c>
+      <c r="I102" s="0">
+        <v>0</v>
+      </c>
+      <c r="K102" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L102" s="0">
+        <v>1</v>
+      </c>
+      <c r="M102" s="0">
+        <v>1</v>
+      </c>
+      <c r="S102" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-20600-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B103" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D103" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E103" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F103" s="0">
+        <v>535</v>
+      </c>
+      <c r="H103" s="0">
+        <v>0</v>
+      </c>
+      <c r="I103" s="0">
+        <v>0</v>
+      </c>
+      <c r="K103" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L103" s="0">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="M103" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="N103" s="0">
+        <v>743.055544483165</v>
+      </c>
+      <c r="P103" s="0">
+        <v>0</v>
+      </c>
+      <c r="S103" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>930-071700-28000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B104" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D104" s="1">
+        <v>45959</v>
+      </c>
+      <c r="E104" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F104" s="0">
+        <v>103</v>
+      </c>
+      <c r="G104" s="0">
+        <v>19</v>
+      </c>
+      <c r="H104" s="0">
+        <v>0</v>
+      </c>
+      <c r="I104" s="0">
+        <v>0</v>
+      </c>
+      <c r="K104" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L104" s="0">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="M104" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="N104" s="0">
+        <v>214.583324806558</v>
+      </c>
+      <c r="O104" s="0">
+        <v>38</v>
+      </c>
+      <c r="P104" s="0">
+        <v>0</v>
+      </c>
+      <c r="S104" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
           <t>930-071700-37600-00000-0000-0000-000-000-000-000-000-000</t>
         </is>
       </c>
-      <c r="B60" s="0">
-        <v>2025</v>
-      </c>
-      <c r="C60" s="0" t="inlineStr">
+      <c r="B105" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="D60" s="1">
+      <c r="D105" s="1">
         <v>45951</v>
       </c>
-      <c r="E60" s="0" t="inlineStr">
+      <c r="E105" s="0" t="inlineStr">
         <is>
           <t>heli</t>
         </is>
       </c>
-      <c r="F60" s="0">
+      <c r="F105" s="0">
         <v>22</v>
       </c>
-      <c r="H60" s="0">
-        <v>0</v>
-      </c>
-      <c r="I60" s="0">
-        <v>0</v>
-      </c>
-      <c r="K60" s="0" t="inlineStr">
+      <c r="H105" s="0">
+        <v>0</v>
+      </c>
+      <c r="I105" s="0">
+        <v>0</v>
+      </c>
+      <c r="K105" s="0" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L60" s="0">
+      <c r="L105" s="0">
         <v>0.75</v>
       </c>
-      <c r="M60" s="0">
-        <v>1</v>
-      </c>
-      <c r="N60" s="0">
+      <c r="M105" s="0">
+        <v>1</v>
+      </c>
+      <c r="N105" s="0">
         <v>29.3333333333333</v>
       </c>
-      <c r="S60" s="0" t="b">
+      <c r="S105" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>930-075500-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B106" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D106" s="1">
+        <v>45922</v>
+      </c>
+      <c r="E106" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F106" s="0">
+        <v>0</v>
+      </c>
+      <c r="H106" s="0">
+        <v>0</v>
+      </c>
+      <c r="I106" s="0">
+        <v>0</v>
+      </c>
+      <c r="K106" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L106" s="0">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="M106" s="0">
+        <v>1</v>
+      </c>
+      <c r="N106" s="0">
+        <v>0</v>
+      </c>
+      <c r="S106" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>930-075500-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B107" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D107" s="1">
+        <v>45940</v>
+      </c>
+      <c r="E107" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F107" s="0">
+        <v>14</v>
+      </c>
+      <c r="G107" s="0">
+        <v>0</v>
+      </c>
+      <c r="H107" s="0">
+        <v>0</v>
+      </c>
+      <c r="I107" s="0">
+        <v>0</v>
+      </c>
+      <c r="K107" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L107" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="M107" s="0">
+        <v>1</v>
+      </c>
+      <c r="N107" s="0">
+        <v>28</v>
+      </c>
+      <c r="O107" s="0">
+        <v>0</v>
+      </c>
+      <c r="S107" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>930-075500-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B108" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D108" s="1">
+        <v>45973</v>
+      </c>
+      <c r="E108" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H108" s="0">
+        <v>0</v>
+      </c>
+      <c r="I108" s="0">
+        <v>0</v>
+      </c>
+      <c r="K108" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L108" s="0">
+        <v>1</v>
+      </c>
+      <c r="M108" s="0">
+        <v>1</v>
+      </c>
+      <c r="S108" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>930-075500-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B109" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D109" s="1">
+        <v>45922</v>
+      </c>
+      <c r="E109" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F109" s="0">
+        <v>0</v>
+      </c>
+      <c r="H109" s="0">
+        <v>0</v>
+      </c>
+      <c r="I109" s="0">
+        <v>0</v>
+      </c>
+      <c r="K109" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L109" s="0">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="M109" s="0">
+        <v>1</v>
+      </c>
+      <c r="N109" s="0">
+        <v>0</v>
+      </c>
+      <c r="S109" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>930-075500-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B110" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D110" s="1">
+        <v>45940</v>
+      </c>
+      <c r="E110" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F110" s="0">
+        <v>37</v>
+      </c>
+      <c r="G110" s="0">
+        <v>0</v>
+      </c>
+      <c r="H110" s="0">
+        <v>0</v>
+      </c>
+      <c r="I110" s="0">
+        <v>0</v>
+      </c>
+      <c r="K110" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L110" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="M110" s="0">
+        <v>1</v>
+      </c>
+      <c r="N110" s="0">
+        <v>74</v>
+      </c>
+      <c r="O110" s="0">
+        <v>0</v>
+      </c>
+      <c r="S110" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>930-075500-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B111" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="D111" s="1">
+        <v>45973</v>
+      </c>
+      <c r="E111" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H111" s="0">
+        <v>0</v>
+      </c>
+      <c r="I111" s="0">
+        <v>0</v>
+      </c>
+      <c r="K111" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L111" s="0">
+        <v>1</v>
+      </c>
+      <c r="M111" s="0">
+        <v>1</v>
+      </c>
+      <c r="S111" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>930-075500-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B112" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D112" s="1">
+        <v>45922</v>
+      </c>
+      <c r="E112" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F112" s="0">
+        <v>0</v>
+      </c>
+      <c r="H112" s="0">
+        <v>0</v>
+      </c>
+      <c r="I112" s="0">
+        <v>0</v>
+      </c>
+      <c r="K112" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L112" s="0">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="M112" s="0">
+        <v>1</v>
+      </c>
+      <c r="N112" s="0">
+        <v>0</v>
+      </c>
+      <c r="S112" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>930-075500-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B113" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D113" s="1">
+        <v>45940</v>
+      </c>
+      <c r="E113" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F113" s="0">
+        <v>678</v>
+      </c>
+      <c r="G113" s="0">
+        <v>0</v>
+      </c>
+      <c r="H113" s="0">
+        <v>0</v>
+      </c>
+      <c r="I113" s="0">
+        <v>0</v>
+      </c>
+      <c r="K113" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L113" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="M113" s="0">
+        <v>1</v>
+      </c>
+      <c r="N113" s="0">
+        <v>1356</v>
+      </c>
+      <c r="O113" s="0">
+        <v>0</v>
+      </c>
+      <c r="S113" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>930-075500-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B114" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D114" s="1">
+        <v>45973</v>
+      </c>
+      <c r="E114" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F114" s="0">
+        <v>1</v>
+      </c>
+      <c r="G114" s="0">
+        <v>0</v>
+      </c>
+      <c r="H114" s="0">
+        <v>0</v>
+      </c>
+      <c r="I114" s="0">
+        <v>0</v>
+      </c>
+      <c r="K114" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L114" s="0">
+        <v>0.600000023841858</v>
+      </c>
+      <c r="M114" s="0">
+        <v>1</v>
+      </c>
+      <c r="N114" s="0">
+        <v>1.66666660043929</v>
+      </c>
+      <c r="O114" s="0">
+        <v>0</v>
+      </c>
+      <c r="S114" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>930-075500-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B115" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="D115" s="1">
+        <v>45922</v>
+      </c>
+      <c r="E115" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F115" s="0">
+        <v>0</v>
+      </c>
+      <c r="H115" s="0">
+        <v>0</v>
+      </c>
+      <c r="I115" s="0">
+        <v>0</v>
+      </c>
+      <c r="K115" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L115" s="0">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="M115" s="0">
+        <v>1</v>
+      </c>
+      <c r="N115" s="0">
+        <v>0</v>
+      </c>
+      <c r="S115" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>930-075500-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B116" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="D116" s="1">
+        <v>45940</v>
+      </c>
+      <c r="E116" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H116" s="0">
+        <v>0</v>
+      </c>
+      <c r="I116" s="0">
+        <v>0</v>
+      </c>
+      <c r="K116" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L116" s="0">
+        <v>1</v>
+      </c>
+      <c r="M116" s="0">
+        <v>1</v>
+      </c>
+      <c r="S116" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>930-075500-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B117" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="D117" s="1">
+        <v>45973</v>
+      </c>
+      <c r="E117" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H117" s="0">
+        <v>0</v>
+      </c>
+      <c r="I117" s="0">
+        <v>0</v>
+      </c>
+      <c r="K117" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L117" s="0">
+        <v>1</v>
+      </c>
+      <c r="M117" s="0">
+        <v>1</v>
+      </c>
+      <c r="S117" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>930-075500-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B118" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D118" s="1">
+        <v>45922</v>
+      </c>
+      <c r="E118" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="F118" s="0">
+        <v>0</v>
+      </c>
+      <c r="H118" s="0">
+        <v>0</v>
+      </c>
+      <c r="I118" s="0">
+        <v>0</v>
+      </c>
+      <c r="K118" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L118" s="0">
+        <v>0.899999976158142</v>
+      </c>
+      <c r="M118" s="0">
+        <v>1</v>
+      </c>
+      <c r="N118" s="0">
+        <v>0</v>
+      </c>
+      <c r="S118" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>930-075500-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B119" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D119" s="1">
+        <v>45940</v>
+      </c>
+      <c r="E119" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H119" s="0">
+        <v>0</v>
+      </c>
+      <c r="I119" s="0">
+        <v>0</v>
+      </c>
+      <c r="K119" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L119" s="0">
+        <v>1</v>
+      </c>
+      <c r="M119" s="0">
+        <v>1</v>
+      </c>
+      <c r="S119" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>930-075500-00000-00000-0000-0000-000-000-000-000-000-000</t>
+        </is>
+      </c>
+      <c r="B120" s="0">
+        <v>2025</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="D120" s="1">
+        <v>45973</v>
+      </c>
+      <c r="E120" s="0" t="inlineStr">
+        <is>
+          <t>snrkl</t>
+        </is>
+      </c>
+      <c r="H120" s="0">
+        <v>0</v>
+      </c>
+      <c r="I120" s="0">
+        <v>0</v>
+      </c>
+      <c r="K120" s="0" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="L120" s="0">
+        <v>1</v>
+      </c>
+      <c r="M120" s="0">
+        <v>1</v>
+      </c>
+      <c r="S120" s="0" t="b">
         <v>0</v>
       </c>
     </row>
